--- a/backend/データ受け渡し.xlsx
+++ b/backend/データ受け渡し.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\236105\Documents\Spotlight\spotlight\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3040C84-61AA-4E28-9508-4980AC6F95C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828F4F45-9592-4FAC-88C1-BF8EABE349A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>検索履歴取得</t>
     <rPh sb="0" eb="6">
@@ -212,6 +212,28 @@
     </rPh>
     <rPh sb="185" eb="187">
       <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ここではバックエンドから受け取るデータの辞書のキーが大文字になってるところがありますが、実際にはすべて小文字です</t>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>コモジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +255,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -348,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -631,7 +661,7 @@
   <dimension ref="B1:AU15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -639,6 +669,11 @@
     <row r="1" spans="2:47">
       <c r="B1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:47">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:47">
